--- a/Dataset/Folds/Fold_2/Excel/67.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5804" uniqueCount="845">
   <si>
     <t>Doi</t>
   </si>
@@ -2494,6 +2494,258 @@
   </si>
   <si>
     <t>[Carmen%Martin%NULL%1,                         Pilar%Andrés%NULL%2,                         Pilar%Andrés%NULL%0,                         Alberto%Bullón%NULL%1,                         José Luis%Villegas%NULL%2,                         José Luis%Villegas%NULL%0,                         Javier Ignacio%de la Iglesia-Larrad%NULL%1,                         Berta%Bote%NULL%1,                         Nieves%Prieto%NULL%1,                         Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                          Erin M.%Parker%NULL%2,                          Kristie E. N.%Clarke%NULL%1,                          Jessie M.%Gaeta%NULL%1,                          Travis P.%Baggett%NULL%1,                          Elizabeth%Imbert%NULL%1,                          Madeline%Sankaran%NULL%2,                          Ashley%Scarborough%NULL%2,                          Karin%Huster%NULL%2,                          Matt%Hanson%NULL%1,                          Elysia%Gonzales%NULL%2,                          Jody%Rauch%NULL%2,                          Libby%Page%NULL%1,                          Temet M.%McMichael%NULL%2,                          Ryan%Keating%NULL%2,                          Grace E.%Marx%NULL%2,                          Tom%Andrews%NULL%2,                          Kristine%Schmit%NULL%2,                          Sapna Bamrah%Morris%NULL%2,                          Nicole F.%Dowling%NULL%2,                          Georgina%Peacock%NULL%2,                          NULL%NULL%NULL%5,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          Ann%Buff%NULL%1,                          Calla%Jamison%NULL%2,                          Ruthanne%Marcus%NULL%1,                          Carol Y.%Rao%NULL%2,                          Julie L.%Self%NULL%2,                          Farrell%Tobolowsky%NULL%1,                          Samantha%Williams%NULL%1,                          Meagan%Kay%NULL%2,                          Naveena%Bobba%NULL%1,                          Stephanie%Cohen%NULL%2,                          Jonathan%Fuchs%NULL%1,                          Trang%Nguyen%NULL%1,                          Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                          Elizabeth S%Davis%NULL%2,                          Elizabeth S%Davis%NULL%0,                          Stockton%Mayer%NULL%1,                          Karrie-Ann%Toews%NULL%1,                          Thomas D%Huggett%NULL%1,                          Nyssa%Snow-Hill%NULL%1,                          Omar%Perez%NULL%1,                          Mary K%Hayden%NULL%1,                          Seena%Tehrani%NULL%1,                          A Justine%Landi%NULL%1,                          Stephanie%Crane%NULL%1,                          Elizabeth%Bell%NULL%1,                          Joy-Marie%Hermes%NULL%1,                          Kush%Desai%NULL%1,                          Michelle%Godbee%NULL%1,                          Naman%Jhaveri%NULL%1,                          Brian%Borah%NULL%1,                          Tracy%Cable%NULL%1,                          Sofia%Sami%NULL%1,                          Laura%Nozicka%NULL%1,                          Yi-Shin%Chang%NULL%1,                          Aditi%Jagadish%NULL%1,                          Mark%Chee%NULL%1,                          Brynna%Thigpen%NULL%1,                          Christopher%Llerena%NULL%1,                          Minh%Tran%NULL%1,                          Divya Meher%Surabhi%NULL%1,                          Emilia D%Smith%NULL%1,                          Rosemary G%Remus%NULL%1,                          Roweine%Staszcuk%NULL%1,                          Evelyn%Figueroa%NULL%1,                          Paul%Leo%NULL%1,                          Wayne M%Detmer%NULL%1,                          Evan%Lyon%NULL%1,                          Sarah%Carreon%NULL%1,                          Stacey%Hoferka%NULL%1,                          Kathleen A%Ritger%NULL%1,                          Wilnise%Jasmin%NULL%1,                          Prathima%Nagireddy%NULL%1,                          Jennifer Y%Seo%NULL%1,                          Marielle J%Fricchione%NULL%1,                          Janna L%Kerins%NULL%1,                          Stephanie R%Black%NULL%1,                          Lisa Morrison%Butler%NULL%1,                          Kimberly%Howard%NULL%1,                          Maura%McCauley%NULL%1,                          Todd%Fraley%NULL%1,                          M Allison%Arwady%NULL%1,                          Stephanie%Gretsch%NULL%1,                          Megan%Cunningham%NULL%1,                          Massimo%Pacilli%NULL%1,                          Peter S%Ruestow%NULL%2,                          Peter S%Ruestow%NULL%0,                          Emily%Mosites%NULL%3,                          Elizabeth%Avery%NULL%1,                          Joshua%Longcoy%NULL%1,                          Elizabeth B%Lynch%NULL%1,                          Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                          Melisa Mei Jin%Tan%NULL%1,                          Eva%Turk%NULL%1,                          Devi%Sridhar%NULL%1,                          Gabriel M%Leung%NULL%1,                          Kenji%Shibuya%NULL%1,                          Nima%Asgari%NULL%1,                          Juhwan%Oh%NULL%1,                          Alberto L%García-Basteiro%NULL%1,                          Johanna%Hanefeld%NULL%1,                          Alex R%Cook%NULL%1,                          Li Yang%Hsu%NULL%1,                          Yik Ying%Teo%NULL%1,                          David%Heymann%NULL%1,                          Helen%Clark%NULL%1,                          Martin%McKee%NULL%1,                          Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                          Erin M.%Ashe%NULL%1,                          Michael%Silverstein%NULL%1,                          Melissa%Hofman%NULL%1,                          Samantha J.%Lange%NULL%1,                          Hilda%Razzaghi%NULL%1,                          Rebecca G.%Mishuris%NULL%1,                          Ravin%Davidoff%NULL%1,                          Erin M.%Parker%NULL%0,                          Ana%Penman-Aguilar%NULL%1,                          Kristie E.N.%Clarke%NULL%1,                          Anna%Goldman%NULL%1,                          Thea L.%James%NULL%1,                          Karen%Jacobson%NULL%1,                          Karen E.%Lasser%NULL%1,                          Ziming%Xuan%NULL%1,                          Georgina%Peacock%NULL%0,                          Nicole F.%Dowling%NULL%0,                          Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                          Alexander%Winnett%NULL%2,                          Alexander%Winnett%NULL%0,                          Christopher J.%Graber%NULL%2,                          Christopher J.%Graber%NULL%0,                          John%Vallone%NULL%1,                          David O.%Beenhouwer%NULL%1,                          Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                          Holly%Murphy%NULL%1,                          Ravi%Vadlamudi%NULL%2,                          Ravi%Vadlamudi%NULL%0,                          Ruth%Kraut%NULL%1,                          Kate%Dalessio%NULL%1,                          Anurag N.%Malani%NULL%1,                          Meghan%Glabach%NULL%1,                          Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                          Amy C.%Link%NULL%2,                          Amy C.%Link%NULL%0,                          Denise%McCulloch%NULL%1,                          Elisabeth%Brandstetter%NULL%1,                          Kira L.%Newman%NULL%2,                          Kira L.%Newman%NULL%0,                          Michael L.%Jackson%NULL%2,                          Michael L.%Jackson%NULL%0,                          James P.%Hughes%NULL%2,                          James P.%Hughes%NULL%0,                          Janet A.%Englund%NULL%2,                          Janet A.%Englund%NULL%0,                          Michael%Boeckh%NULL%2,                          Michael%Boeckh%NULL%0,                          Nancy%Sugg%NULL%2,                          Misja%Ilcisin%NULL%1,                          Thomas R.%Sibley%NULL%2,                          Thomas R.%Sibley%NULL%0,                          Kairsten%Fay%NULL%2,                          Kairsten%Fay%NULL%0,                          Jover%Lee%NULL%2,                          Jover%Lee%NULL%0,                          Peter%Han%NULL%2,                          Peter%Han%NULL%0,                          Melissa%Truong%NULL%1,                          Matthew%Richardson%NULL%2,                          Matthew%Richardson%NULL%0,                          Deborah A.%Nickerson%NULL%2,                          Deborah A.%Nickerson%NULL%0,                          Lea M.%Starita%NULL%1,                          Trevor%Bedford%NULL%2,                          Trevor%Bedford%NULL%0,                          Helen Y.%Chu%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                          Elizabeth J.%D'Amico%NULL%1,                          Eric R.%Pedersen%NULL%1,                          Rick%Garvey%NULL%1,                          Anthony%Rodriguez%NULL%1,                          David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                          Christian%Ramers%NULL%1,                          Adam%Northrup%NULL%1,                          Aaron%Tam%aaront@fhscd.org%1,                          Jie%Liu%NULL%1,                          Sarah%Rojas%NULL%1,                          Stacey%Klaman%NULL%1,                          Maureen%Khasira%NULL%1,                          Jenan%Madbak%NULL%1,                          Eva%Matthews%NULL%1,                          Jeffrey%Norris%NULL%1,                          Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                          Martha P%Montgomery%NULL%2,                          Martha P%Montgomery%NULL%0,                          Ann M%Buff%NULL%1,                          Andrew T%Boyd%NULL%1,                          Calla%Jamison%NULL%0,                          Alfonso%Hernandez%NULL%1,                          Kristine%Schmit%NULL%0,                          Sarita%Shah%NULL%1,                          Sophia%Ajoku%NULL%1,                          David P%Holland%NULL%1,                          Juliana%Prieto%NULL%1,                          Sasha%Smith%NULL%1,                          Mark A%Swancutt%NULL%1,                          Kim%Turner%NULL%1,                          Tom%Andrews%NULL%0,                          Kevin%Flowers%NULL%1,                          Alyssa%Wells%NULL%1,                          Cathryn%Marchman%NULL%1,                          Emaline%Laney%NULL%1,                          Danae%Bixler%NULL%1,                          Sean%Cavanaugh%NULL%1,                          Nicole%Flowers%NULL%1,                          Nicholas%Gaffga%NULL%1,                          Jean Y%Ko%NULL%1,                          Heather N%Paulin%NULL%1,                          Mark K%Weng%NULL%1,                          Emily%Mosites%NULL%0,                          Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                          Patrick M%Kinley%NULL%1,                          Ashley%Scarborough%NULL%0,                          Caroline%Cawley%NULL%1,                          Madeline%Sankaran%NULL%0,                          Sarah N%Cox%NULL%1,                          Margot%Kushel%NULL%1,                          Juliet%Stoltey%NULL%1,                          Stephanie%Cohen%NULL%0,                          Jonathan D%Fuchs%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                          Elysia%Gonzales%NULL%0,                          Julie L.%Self%NULL%0,                          Carol Y.%Rao%NULL%0,                          Ryan%Keating%NULL%0,                          Grace E.%Marx%NULL%0,                          Temet M.%McMichael%NULL%0,                          Margaret D.%Lukoff%NULL%1,                          Jeffrey S.%Duchin%NULL%1,                          Karin%Huster%NULL%0,                          Jody%Rauch%NULL%0,                          Hedda%McLendon%NULL%1,                          Matthew%Hanson%NULL%1,                          Dave%Nichols%NULL%1,                          Sargis%Pogosjans%NULL%1,                          Meaghan%Fagalde%NULL%1,                          Jennifer%Lenahan%NULL%1,                          Emily%Maier%NULL%1,                          Holly%Whitney%NULL%1,                          Nancy%Sugg%NULL%0,                          Helen%Chu%NULL%1,                          Julia%Rogers%NULL%1,                          Emily%Mosites%NULL%0,                          Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                          Elizabeth%Samuels%NULL%1,                          Rahul%Vanjani%NULL%1,                          Catherine%Trimbur%NULL%1,                          Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                          Josephine%Jacobs%NULL%2,                          Josephine%Jacobs%NULL%0,                          Maria%Yefimova%NULL%1,                          Liberty%Greene%NULL%1,                          Leonie%Heyworth%NULL%1,                          Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                          Richard%Booth%NULL%1,                          Jennifer%Rayner%NULL%1,                          Kristin K.%Clemens%NULL%1,                          Cheryl%Forchuk%NULL%1,                          Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                          Van Thuan%Hoang%NULL%2,                          Ndiaw%Goumballa%NULL%2,                          Meriem%Louni%NULL%2,                          Naomie%Canard%NULL%2,                          Thi Loi%Dao%NULL%2,                          Hacene%Medkour%NULL%2,                          Audrey%Borg%NULL%2,                          Kevin%Bardy%NULL%2,                          Véra%Esteves-Vieira%NULL%2,                          Véronique%Filosa%NULL%2,                          Bernard%Davoust%NULL%2,                          Oleg%Mediannikov%NULL%2,                          Pierre-Edouard%Fournier%NULL%2,                          Didier%Raoult%NULL%2,                          Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                          Bastien%Mollo%NULL%1,                          Charline%Vincent%NULL%1,                          Birgit%Nikolay%NULL%1,                          Augusto E%Llosa%NULL%1,                          Robin%Nesbitt%NULL%1,                          Jessica%Vanhomwegen%NULL%1,                          Thierry%Rose%NULL%1,                          Sophie%Goyard%NULL%1,                          François%Anna%NULL%1,                          Corinne%Torre%NULL%1,                          Emilie%Fourrey%NULL%1,                          Erica%Simons%NULL%1,                          William%Hennequin%NULL%1,                          Clair%Mills%NULL%1,                          Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                          Nhu Ngoc%Nguyen%NULL%1,                          Van Thuan%Hoang%NULL%0,                          Ndiaw%Goumballa%NULL%0,                          Meriem%Louni%NULL%0,                          Naomie%Canard%NULL%0,                          Thi Loi%Dao%NULL%0,                          Hacene%Medkour%NULL%0,                          Audrey%Borg%NULL%0,                          Kevin%Bardy%NULL%0,                          Véra%Esteves-Vieira%NULL%0,                          Véronique%Filosa%NULL%0,                          Bernard%Davoust%NULL%0,                          Oleg%Mediannikov%NULL%0,                          Pierre-Edouard%Fournier%NULL%0,                          Didier%Raoult%NULL%0,                          Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                          Aldo%Morrone%NULL%1,                          Andrea%Arcangeli%NULL%1,                          Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                          Marc%Delforge%NULL%1,                          Faustine%Lebout%NULL%1,                          Thibaut%Vanbaelen%NULL%1,                          Amaryl%Lecompte%NULL%1,                          Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                          Pilar%Andrés%NULL%2,                          Pilar%Andrés%NULL%0,                          Alberto%Bullón%NULL%1,                          José Luis%Villegas%NULL%2,                          José Luis%Villegas%NULL%0,                          Javier Ignacio%de la Iglesia-Larrad%NULL%1,                          Berta%Bote%NULL%1,                          Nieves%Prieto%NULL%1,                          Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%1,                           Erin M.%Parker%NULL%2,                           Kristie E. N.%Clarke%NULL%1,                           Jessie M.%Gaeta%NULL%1,                           Travis P.%Baggett%NULL%1,                           Elizabeth%Imbert%NULL%1,                           Madeline%Sankaran%NULL%2,                           Ashley%Scarborough%NULL%2,                           Karin%Huster%NULL%2,                           Matt%Hanson%NULL%1,                           Elysia%Gonzales%NULL%2,                           Jody%Rauch%NULL%2,                           Libby%Page%NULL%1,                           Temet M.%McMichael%NULL%2,                           Ryan%Keating%NULL%2,                           Grace E.%Marx%NULL%2,                           Tom%Andrews%NULL%2,                           Kristine%Schmit%NULL%2,                           Sapna Bamrah%Morris%NULL%2,                           Nicole F.%Dowling%NULL%2,                           Georgina%Peacock%NULL%2,                           NULL%NULL%NULL%5,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           Ann%Buff%NULL%1,                           Calla%Jamison%NULL%2,                           Ruthanne%Marcus%NULL%1,                           Carol Y.%Rao%NULL%2,                           Julie L.%Self%NULL%2,                           Farrell%Tobolowsky%NULL%1,                           Samantha%Williams%NULL%1,                           Meagan%Kay%NULL%2,                           Naveena%Bobba%NULL%1,                           Stephanie%Cohen%NULL%2,                           Jonathan%Fuchs%NULL%1,                           Trang%Nguyen%NULL%1,                           Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%1,                           Elizabeth S%Davis%NULL%2,                           Elizabeth S%Davis%NULL%0,                           Stockton%Mayer%NULL%1,                           Karrie-Ann%Toews%NULL%1,                           Thomas D%Huggett%NULL%1,                           Nyssa%Snow-Hill%NULL%1,                           Omar%Perez%NULL%1,                           Mary K%Hayden%NULL%1,                           Seena%Tehrani%NULL%1,                           A Justine%Landi%NULL%1,                           Stephanie%Crane%NULL%1,                           Elizabeth%Bell%NULL%1,                           Joy-Marie%Hermes%NULL%1,                           Kush%Desai%NULL%1,                           Michelle%Godbee%NULL%1,                           Naman%Jhaveri%NULL%1,                           Brian%Borah%NULL%1,                           Tracy%Cable%NULL%1,                           Sofia%Sami%NULL%1,                           Laura%Nozicka%NULL%1,                           Yi-Shin%Chang%NULL%1,                           Aditi%Jagadish%NULL%1,                           Mark%Chee%NULL%1,                           Brynna%Thigpen%NULL%1,                           Christopher%Llerena%NULL%1,                           Minh%Tran%NULL%1,                           Divya Meher%Surabhi%NULL%1,                           Emilia D%Smith%NULL%1,                           Rosemary G%Remus%NULL%1,                           Roweine%Staszcuk%NULL%1,                           Evelyn%Figueroa%NULL%1,                           Paul%Leo%NULL%1,                           Wayne M%Detmer%NULL%1,                           Evan%Lyon%NULL%1,                           Sarah%Carreon%NULL%1,                           Stacey%Hoferka%NULL%1,                           Kathleen A%Ritger%NULL%1,                           Wilnise%Jasmin%NULL%1,                           Prathima%Nagireddy%NULL%1,                           Jennifer Y%Seo%NULL%1,                           Marielle J%Fricchione%NULL%1,                           Janna L%Kerins%NULL%1,                           Stephanie R%Black%NULL%1,                           Lisa Morrison%Butler%NULL%1,                           Kimberly%Howard%NULL%1,                           Maura%McCauley%NULL%1,                           Todd%Fraley%NULL%1,                           M Allison%Arwady%NULL%1,                           Stephanie%Gretsch%NULL%1,                           Megan%Cunningham%NULL%1,                           Massimo%Pacilli%NULL%1,                           Peter S%Ruestow%NULL%2,                           Peter S%Ruestow%NULL%0,                           Emily%Mosites%NULL%3,                           Elizabeth%Avery%NULL%1,                           Joshua%Longcoy%NULL%1,                           Elizabeth B%Lynch%NULL%1,                           Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%1,                           Melisa Mei Jin%Tan%NULL%1,                           Eva%Turk%NULL%1,                           Devi%Sridhar%NULL%1,                           Gabriel M%Leung%NULL%1,                           Kenji%Shibuya%NULL%1,                           Nima%Asgari%NULL%1,                           Juhwan%Oh%NULL%1,                           Alberto L%García-Basteiro%NULL%1,                           Johanna%Hanefeld%NULL%1,                           Alex R%Cook%NULL%1,                           Li Yang%Hsu%NULL%1,                           Yik Ying%Teo%NULL%1,                           David%Heymann%NULL%1,                           Helen%Clark%NULL%1,                           Martin%McKee%NULL%1,                           Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%1,                           Erin M.%Ashe%NULL%1,                           Michael%Silverstein%NULL%1,                           Melissa%Hofman%NULL%1,                           Samantha J.%Lange%NULL%1,                           Hilda%Razzaghi%NULL%1,                           Rebecca G.%Mishuris%NULL%1,                           Ravin%Davidoff%NULL%1,                           Erin M.%Parker%NULL%0,                           Ana%Penman-Aguilar%NULL%1,                           Kristie E.N.%Clarke%NULL%1,                           Anna%Goldman%NULL%1,                           Thea L.%James%NULL%1,                           Karen%Jacobson%NULL%1,                           Karen E.%Lasser%NULL%1,                           Ziming%Xuan%NULL%1,                           Georgina%Peacock%NULL%0,                           Nicole F.%Dowling%NULL%0,                           Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%1,                           Alexander%Winnett%NULL%2,                           Alexander%Winnett%NULL%0,                           Christopher J.%Graber%NULL%2,                           Christopher J.%Graber%NULL%0,                           John%Vallone%NULL%1,                           David O.%Beenhouwer%NULL%1,                           Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%1,                           Holly%Murphy%NULL%1,                           Ravi%Vadlamudi%NULL%2,                           Ravi%Vadlamudi%NULL%0,                           Ruth%Kraut%NULL%1,                           Kate%Dalessio%NULL%1,                           Anurag N.%Malani%NULL%1,                           Meghan%Glabach%NULL%1,                           Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%1,                           Amy C.%Link%NULL%2,                           Amy C.%Link%NULL%0,                           Denise%McCulloch%NULL%1,                           Elisabeth%Brandstetter%NULL%1,                           Kira L.%Newman%NULL%2,                           Kira L.%Newman%NULL%0,                           Michael L.%Jackson%NULL%2,                           Michael L.%Jackson%NULL%0,                           James P.%Hughes%NULL%2,                           James P.%Hughes%NULL%0,                           Janet A.%Englund%NULL%2,                           Janet A.%Englund%NULL%0,                           Michael%Boeckh%NULL%2,                           Michael%Boeckh%NULL%0,                           Nancy%Sugg%NULL%2,                           Misja%Ilcisin%NULL%1,                           Thomas R.%Sibley%NULL%2,                           Thomas R.%Sibley%NULL%0,                           Kairsten%Fay%NULL%2,                           Kairsten%Fay%NULL%0,                           Jover%Lee%NULL%2,                           Jover%Lee%NULL%0,                           Peter%Han%NULL%2,                           Peter%Han%NULL%0,                           Melissa%Truong%NULL%1,                           Matthew%Richardson%NULL%2,                           Matthew%Richardson%NULL%0,                           Deborah A.%Nickerson%NULL%2,                           Deborah A.%Nickerson%NULL%0,                           Lea M.%Starita%NULL%1,                           Trevor%Bedford%NULL%2,                           Trevor%Bedford%NULL%0,                           Helen Y.%Chu%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%1,                           Elizabeth J.%D'Amico%NULL%1,                           Eric R.%Pedersen%NULL%1,                           Rick%Garvey%NULL%1,                           Anthony%Rodriguez%NULL%1,                           David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%1,                           Christian%Ramers%NULL%1,                           Adam%Northrup%NULL%1,                           Aaron%Tam%aaront@fhscd.org%1,                           Jie%Liu%NULL%1,                           Sarah%Rojas%NULL%1,                           Stacey%Klaman%NULL%1,                           Maureen%Khasira%NULL%1,                           Jenan%Madbak%NULL%1,                           Eva%Matthews%NULL%1,                           Jeffrey%Norris%NULL%1,                           Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%1,                           Martha P%Montgomery%NULL%2,                           Martha P%Montgomery%NULL%0,                           Ann M%Buff%NULL%1,                           Andrew T%Boyd%NULL%1,                           Calla%Jamison%NULL%0,                           Alfonso%Hernandez%NULL%1,                           Kristine%Schmit%NULL%0,                           Sarita%Shah%NULL%1,                           Sophia%Ajoku%NULL%1,                           David P%Holland%NULL%1,                           Juliana%Prieto%NULL%1,                           Sasha%Smith%NULL%1,                           Mark A%Swancutt%NULL%1,                           Kim%Turner%NULL%1,                           Tom%Andrews%NULL%0,                           Kevin%Flowers%NULL%1,                           Alyssa%Wells%NULL%1,                           Cathryn%Marchman%NULL%1,                           Emaline%Laney%NULL%1,                           Danae%Bixler%NULL%1,                           Sean%Cavanaugh%NULL%1,                           Nicole%Flowers%NULL%1,                           Nicholas%Gaffga%NULL%1,                           Jean Y%Ko%NULL%1,                           Heather N%Paulin%NULL%1,                           Mark K%Weng%NULL%1,                           Emily%Mosites%NULL%0,                           Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%1,                           Patrick M%Kinley%NULL%1,                           Ashley%Scarborough%NULL%0,                           Caroline%Cawley%NULL%1,                           Madeline%Sankaran%NULL%0,                           Sarah N%Cox%NULL%1,                           Margot%Kushel%NULL%1,                           Juliet%Stoltey%NULL%1,                           Stephanie%Cohen%NULL%0,                           Jonathan D%Fuchs%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%1,                           Elysia%Gonzales%NULL%0,                           Julie L.%Self%NULL%0,                           Carol Y.%Rao%NULL%0,                           Ryan%Keating%NULL%0,                           Grace E.%Marx%NULL%0,                           Temet M.%McMichael%NULL%0,                           Margaret D.%Lukoff%NULL%1,                           Jeffrey S.%Duchin%NULL%1,                           Karin%Huster%NULL%0,                           Jody%Rauch%NULL%0,                           Hedda%McLendon%NULL%1,                           Matthew%Hanson%NULL%1,                           Dave%Nichols%NULL%1,                           Sargis%Pogosjans%NULL%1,                           Meaghan%Fagalde%NULL%1,                           Jennifer%Lenahan%NULL%1,                           Emily%Maier%NULL%1,                           Holly%Whitney%NULL%1,                           Nancy%Sugg%NULL%0,                           Helen%Chu%NULL%1,                           Julia%Rogers%NULL%1,                           Emily%Mosites%NULL%0,                           Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%1,                           Elizabeth%Samuels%NULL%1,                           Rahul%Vanjani%NULL%1,                           Catherine%Trimbur%NULL%1,                           Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%1,                           Josephine%Jacobs%NULL%2,                           Josephine%Jacobs%NULL%0,                           Maria%Yefimova%NULL%1,                           Liberty%Greene%NULL%1,                           Leonie%Heyworth%NULL%1,                           Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%1,                           Richard%Booth%NULL%1,                           Jennifer%Rayner%NULL%1,                           Kristin K.%Clemens%NULL%1,                           Cheryl%Forchuk%NULL%1,                           Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                           Van Thuan%Hoang%NULL%2,                           Ndiaw%Goumballa%NULL%2,                           Meriem%Louni%NULL%2,                           Naomie%Canard%NULL%2,                           Thi Loi%Dao%NULL%2,                           Hacene%Medkour%NULL%2,                           Audrey%Borg%NULL%2,                           Kevin%Bardy%NULL%2,                           Véra%Esteves-Vieira%NULL%2,                           Véronique%Filosa%NULL%2,                           Bernard%Davoust%NULL%2,                           Oleg%Mediannikov%NULL%2,                           Pierre-Edouard%Fournier%NULL%2,                           Didier%Raoult%NULL%2,                           Philippe%Gautret%philippe.gautret@club-internet.fr%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%1,                           Bastien%Mollo%NULL%1,                           Charline%Vincent%NULL%1,                           Birgit%Nikolay%NULL%1,                           Augusto E%Llosa%NULL%1,                           Robin%Nesbitt%NULL%1,                           Jessica%Vanhomwegen%NULL%1,                           Thierry%Rose%NULL%1,                           Sophie%Goyard%NULL%1,                           François%Anna%NULL%1,                           Corinne%Torre%NULL%1,                           Emilie%Fourrey%NULL%1,                           Erica%Simons%NULL%1,                           William%Hennequin%NULL%1,                           Clair%Mills%NULL%1,                           Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0,                           Nhu Ngoc%Nguyen%NULL%1,                           Van Thuan%Hoang%NULL%0,                           Ndiaw%Goumballa%NULL%0,                           Meriem%Louni%NULL%0,                           Naomie%Canard%NULL%0,                           Thi Loi%Dao%NULL%0,                           Hacene%Medkour%NULL%0,                           Audrey%Borg%NULL%0,                           Kevin%Bardy%NULL%0,                           Véra%Esteves-Vieira%NULL%0,                           Véronique%Filosa%NULL%0,                           Bernard%Davoust%NULL%0,                           Oleg%Mediannikov%NULL%0,                           Pierre-Edouard%Fournier%NULL%0,                           Didier%Raoult%NULL%0,                           Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%1,                           Aldo%Morrone%NULL%1,                           Andrea%Arcangeli%NULL%1,                           Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%1,                           Marc%Delforge%NULL%1,                           Faustine%Lebout%NULL%1,                           Thibaut%Vanbaelen%NULL%1,                           Amaryl%Lecompte%NULL%1,                           Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%1,                           Pilar%Andrés%NULL%2,                           Pilar%Andrés%NULL%0,                           Alberto%Bullón%NULL%1,                           José Luis%Villegas%NULL%2,                           José Luis%Villegas%NULL%0,                           Javier Ignacio%de la Iglesia-Larrad%NULL%1,                           Berta%Bote%NULL%1,                           Nieves%Prieto%NULL%1,                           Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Mosites%NULL%0, Erin M.%Parker%NULL%2, Kristie E. N.%Clarke%NULL%1, Jessie M.%Gaeta%NULL%1, Travis P.%Baggett%NULL%1, Elizabeth%Imbert%NULL%0, Madeline%Sankaran%NULL%2, Ashley%Scarborough%NULL%2, Karin%Huster%NULL%2, Matt%Hanson%NULL%1, Elysia%Gonzales%NULL%0, Jody%Rauch%NULL%2, Libby%Page%NULL%1, Temet M.%McMichael%NULL%0, Ryan%Keating%NULL%2, Grace E.%Marx%NULL%2, Tom%Andrews%NULL%2, Kristine%Schmit%NULL%0, Sapna Bamrah%Morris%NULL%0, Nicole F.%Dowling%NULL%2, Georgina%Peacock%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Ann%Buff%NULL%1, Calla%Jamison%NULL%2, Ruthanne%Marcus%NULL%1, Carol Y.%Rao%NULL%2, Julie L.%Self%NULL%2, Farrell%Tobolowsky%NULL%0, Samantha%Williams%NULL%1, Meagan%Kay%NULL%0, Naveena%Bobba%NULL%0, Stephanie%Cohen%NULL%0, Jonathan%Fuchs%NULL%1, Trang%Nguyen%NULL%1, Julie%Stoltey%NULL%1]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Isaac%Ghinai%isaac.ghinai@cityofchicago.org%0, Elizabeth S%Davis%NULL%2, Elizabeth S%Davis%NULL%0, Stockton%Mayer%NULL%1, Karrie-Ann%Toews%NULL%1, Thomas D%Huggett%NULL%1, Nyssa%Snow-Hill%NULL%1, Omar%Perez%NULL%1, Mary K%Hayden%NULL%1, Seena%Tehrani%NULL%1, A Justine%Landi%NULL%1, Stephanie%Crane%NULL%1, Elizabeth%Bell%NULL%1, Joy-Marie%Hermes%NULL%1, Kush%Desai%NULL%1, Michelle%Godbee%NULL%1, Naman%Jhaveri%NULL%1, Brian%Borah%NULL%1, Tracy%Cable%NULL%1, Sofia%Sami%NULL%1, Laura%Nozicka%NULL%1, Yi-Shin%Chang%NULL%1, Aditi%Jagadish%NULL%1, Mark%Chee%NULL%1, Brynna%Thigpen%NULL%1, Christopher%Llerena%NULL%1, Minh%Tran%NULL%1, Divya Meher%Surabhi%NULL%1, Emilia D%Smith%NULL%1, Rosemary G%Remus%NULL%1, Roweine%Staszcuk%NULL%1, Evelyn%Figueroa%NULL%1, Paul%Leo%NULL%1, Wayne M%Detmer%NULL%1, Evan%Lyon%NULL%1, Sarah%Carreon%NULL%1, Stacey%Hoferka%NULL%1, Kathleen A%Ritger%NULL%1, Wilnise%Jasmin%NULL%1, Prathima%Nagireddy%NULL%1, Jennifer Y%Seo%NULL%1, Marielle J%Fricchione%NULL%1, Janna L%Kerins%NULL%1, Stephanie R%Black%NULL%1, Lisa Morrison%Butler%NULL%1, Kimberly%Howard%NULL%1, Maura%McCauley%NULL%1, Todd%Fraley%NULL%1, M Allison%Arwady%NULL%1, Stephanie%Gretsch%NULL%1, Megan%Cunningham%NULL%1, Massimo%Pacilli%NULL%1, Peter S%Ruestow%NULL%2, Peter S%Ruestow%NULL%0, Emily%Mosites%NULL%0, Elizabeth%Avery%NULL%1, Joshua%Longcoy%NULL%1, Elizabeth B%Lynch%NULL%1, Jennifer E%Layden%NULL%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic is an unprecedented global crisis.
+ Many countries have implemented restrictions on population movement to slow the spread of severe acute respiratory syndrome coronavirus 2 and prevent health systems from becoming overwhelmed; some have instituted full or partial lockdowns.
+ However, lockdowns and other extreme restrictions cannot be sustained for the long term in the hope that there will be an effective vaccine or treatment for COVID-19. Governments worldwide now face the common challenge of easing lockdowns and restrictions while balancing various health, social, and economic concerns.
+ To facilitate cross-country learning, this Health Policy paper uses an adapted framework to examine the approaches taken by nine high-income countries and regions that have started to ease COVID-19 restrictions: five in the Asia Pacific region (ie, Hong Kong [Special Administrative Region], Japan, New Zealand, Singapore, and South Korea) and four in Europe (ie, Germany, Norway, Spain, and the UK).
+ This comparative analysis presents important lessons to be learnt from the experiences of these countries and regions.
+ Although the future of the virus is unknown at present, countries should continue to share their experiences, shield populations who are at risk, and suppress transmission to save lives.
+</t>
+  </si>
+  <si>
+    <t>[Emeline%Han%NULL%0, Melisa Mei Jin%Tan%NULL%1, Eva%Turk%NULL%1, Devi%Sridhar%NULL%1, Gabriel M%Leung%NULL%3, Kenji%Shibuya%NULL%1, Nima%Asgari%NULL%1, Juhwan%Oh%NULL%1, Alberto L%García-Basteiro%NULL%1, Johanna%Hanefeld%NULL%1, Alex R%Cook%NULL%1, Li Yang%Hsu%NULL%1, Yik Ying%Teo%NULL%1, David%Heymann%NULL%1, Helen%Clark%NULL%1, Martin%McKee%NULL%1, Helena%Legido-Quigley%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Heather E.%Hsu%NULL%0, Erin M.%Ashe%NULL%1, Michael%Silverstein%NULL%1, Melissa%Hofman%NULL%1, Samantha J.%Lange%NULL%1, Hilda%Razzaghi%NULL%0, Rebecca G.%Mishuris%NULL%1, Ravin%Davidoff%NULL%1, Erin M.%Parker%NULL%0, Ana%Penman-Aguilar%NULL%1, Kristie E.N.%Clarke%NULL%1, Anna%Goldman%NULL%1, Thea L.%James%NULL%1, Karen%Jacobson%NULL%1, Karen E.%Lasser%NULL%1, Ziming%Xuan%NULL%1, Georgina%Peacock%NULL%0, Nicole F.%Dowling%NULL%0, Alyson B.%Goodman%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We describe a widespread laboratory surveillance program for severe acute respiratory coronavirus virus 2 (SARS-CoV-2) at an integrated medical campus that includes a tertiary-care center, a skilled nursing facility, a rehabilitation treatment center, and temporary shelter units.
+ We identified 22 asymptomatic cases of SARS-CoV-2 and implemented infection control measures to prevent SARS-CoV-2 transmission in congregate settings.
+</t>
+  </si>
+  <si>
+    <t>[Lauren P.%Jatt%NULL%0, Alexander%Winnett%NULL%0, Alexander%Winnett%NULL%0, Christopher J.%Graber%NULL%0, Christopher J.%Graber%NULL%0, John%Vallone%NULL%1, David O.%Beenhouwer%NULL%1, Matthew Bidwell%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Dan%Kelly%NULL%0, Holly%Murphy%NULL%1, Ravi%Vadlamudi%NULL%2, Ravi%Vadlamudi%NULL%0, Ruth%Kraut%NULL%1, Kate%Dalessio%NULL%1, Anurag N.%Malani%NULL%1, Meghan%Glabach%NULL%1, Juan Luis%Marquez%NULL%1]</t>
+  </si>
+  <si>
+    <t>Congregate living situations, such as homeless shelters, are high-risk settings for transmission of SARS-CoV-2 among residents and staff.
+ This article describes findings from a study using active surveillance for SARS-CoV-2 that took place in 14 homeless shelters in King County, Washington, between 1 January and 24 April 2020.</t>
+  </si>
+  <si>
+    <t>[Julia H.%Rogers%NULL%0, Amy C.%Link%NULL%2, Amy C.%Link%NULL%0, Denise%McCulloch%NULL%1, Elisabeth%Brandstetter%NULL%0, Kira L.%Newman%NULL%0, Kira L.%Newman%NULL%0, Michael L.%Jackson%NULL%2, Michael L.%Jackson%NULL%0, James P.%Hughes%NULL%2, James P.%Hughes%NULL%0, Janet A.%Englund%NULL%0, Janet A.%Englund%NULL%0, Michael%Boeckh%NULL%2, Michael%Boeckh%NULL%0, Nancy%Sugg%NULL%2, Misja%Ilcisin%NULL%1, Thomas R.%Sibley%NULL%2, Thomas R.%Sibley%NULL%0, Kairsten%Fay%NULL%2, Kairsten%Fay%NULL%0, Jover%Lee%NULL%2, Jover%Lee%NULL%0, Peter%Han%NULL%2, Peter%Han%NULL%0, Melissa%Truong%NULL%1, Matthew%Richardson%NULL%2, Matthew%Richardson%NULL%0, Deborah A.%Nickerson%NULL%2, Deborah A.%Nickerson%NULL%0, Lea M.%Starita%NULL%0, Trevor%Bedford%NULL%0, Trevor%Bedford%NULL%0, Helen Y.%Chu%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Physicians</t>
+  </si>
+  <si>
+    <t>[Joan S.%Tucker%NULL%0, Elizabeth J.%D'Amico%NULL%1, Eric R.%Pedersen%NULL%1, Rick%Garvey%NULL%1, Anthony%Rodriguez%NULL%1, David J.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>Society for Adolescent Health and Medicine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During April-August 2020, a preemptive testing strategy combined with accessible isolation and symptom screening among people experiencing homelessness in congregant living settings in San Diego contributed to a low incidence proportion of COVID-19: 0.9%.
+ Proactively addressing challenges specific to a vulnerable population may significantly prevent spread and community outbreaks.
+</t>
+  </si>
+  <si>
+    <t>[Hanna%Marquez%NULL%0, Christian%Ramers%NULL%1, Adam%Northrup%NULL%1, Aaron%Tam%aaront@fhscd.org%1, Jie%Liu%NULL%1, Sarah%Rojas%NULL%1, Stacey%Klaman%NULL%1, Maureen%Khasira%NULL%1, Jenan%Madbak%NULL%1, Eva%Matthews%NULL%1, Jeffrey%Norris%NULL%1, Job%Godino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jane C%Yoon%NULL%0, Martha P%Montgomery%NULL%2, Martha P%Montgomery%NULL%0, Ann M%Buff%NULL%1, Andrew T%Boyd%NULL%1, Calla%Jamison%NULL%0, Alfonso%Hernandez%NULL%1, Kristine%Schmit%NULL%0, Sarita%Shah%NULL%0, Sophia%Ajoku%NULL%1, David P%Holland%NULL%1, Juliana%Prieto%NULL%0, Sasha%Smith%NULL%0, Mark A%Swancutt%NULL%1, Kim%Turner%NULL%0, Tom%Andrews%NULL%0, Kevin%Flowers%NULL%1, Alyssa%Wells%NULL%1, Cathryn%Marchman%NULL%1, Emaline%Laney%NULL%1, Danae%Bixler%NULL%1, Sean%Cavanaugh%NULL%1, Nicole%Flowers%NULL%1, Nicholas%Gaffga%NULL%1, Jean Y%Ko%NULL%1, Heather N%Paulin%NULL%1, Mark K%Weng%NULL%1, Emily%Mosites%NULL%0, Sapna Bamrah%Morris%feu3@cdc.gov%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report the public health response to a COVID-19 outbreak in a San Francisco shelter where 67% of residents and 17% of staff tested positive for SARS-CoV-2. We describe the limited utility of case investigation, person-based contact tracing and symptom screening, and the benefits of mass testing in outbreak response.
+</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Imbert%Elizabeth.imbert@ucsf.edu%0, Patrick M%Kinley%NULL%1, Ashley%Scarborough%NULL%0, Caroline%Cawley%NULL%1, Madeline%Sankaran%NULL%0, Sarah N%Cox%NULL%1, Margot%Kushel%NULL%1, Juliet%Stoltey%NULL%0, Stephanie%Cohen%NULL%0, Jonathan D%Fuchs%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farrell A.%Tobolowsky%NULL%0, Elysia%Gonzales%NULL%0, Julie L.%Self%NULL%0, Carol Y.%Rao%NULL%0, Ryan%Keating%NULL%0, Grace E.%Marx%NULL%0, Temet M.%McMichael%NULL%0, Margaret D.%Lukoff%NULL%0, Jeffrey S.%Duchin%NULL%0, Karin%Huster%NULL%0, Jody%Rauch%NULL%0, Hedda%McLendon%NULL%1, Matthew%Hanson%NULL%1, Dave%Nichols%NULL%1, Sargis%Pogosjans%NULL%0, Meaghan%Fagalde%NULL%1, Jennifer%Lenahan%NULL%1, Emily%Maier%NULL%1, Holly%Whitney%NULL%0, Nancy%Sugg%NULL%0, Helen%Chu%NULL%1, Julia%Rogers%NULL%1, Emily%Mosites%NULL%0, Meagan%Kay%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Karb%NULL%0, Elizabeth%Samuels%NULL%1, Rahul%Vanjani%NULL%1, Catherine%Trimbur%NULL%1, Anthony%Napoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>Department of Emergency Medicine, University of California, Irvine School of Medicine</t>
+  </si>
+  <si>
+    <t>[Jacqueline M%Ferguson%Jacqueline.Ferguson@va.gov%0, Josephine%Jacobs%NULL%2, Josephine%Jacobs%NULL%0, Maria%Yefimova%NULL%1, Liberty%Greene%NULL%1, Leonie%Heyworth%NULL%1, Donna M%Zulman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucie%Richard%NULL%0, Richard%Booth%NULL%1, Jennifer%Rayner%NULL%1, Kristin K.%Clemens%NULL%1, Cheryl%Forchuk%NULL%1, Salimah Z.%Shariff%NULL%1]</t>
+  </si>
+  <si>
+    <t>Joule Inc. or its licensors</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0, Van Thuan%Hoang%NULL%3, Ndiaw%Goumballa%NULL%2, Meriem%Louni%NULL%2, Naomie%Canard%NULL%2, Thi Loi%Dao%NULL%2, Hacene%Medkour%NULL%2, Audrey%Borg%NULL%2, Kevin%Bardy%NULL%2, Véra%Esteves-Vieira%NULL%2, Véronique%Filosa%NULL%2, Bernard%Davoust%NULL%2, Oleg%Mediannikov%NULL%2, Pierre-Edouard%Fournier%NULL%2, Didier%Raoult%NULL%0, Philippe%Gautret%philippe.gautret@club-internet.fr%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Thomas%Roederer%NULL%0, Bastien%Mollo%NULL%1, Charline%Vincent%NULL%1, Birgit%Nikolay%NULL%1, Augusto E%Llosa%NULL%1, Robin%Nesbitt%NULL%1, Jessica%Vanhomwegen%NULL%1, Thierry%Rose%NULL%1, Sophie%Goyard%NULL%1, François%Anna%NULL%1, Corinne%Torre%NULL%1, Emilie%Fourrey%NULL%1, Erica%Simons%NULL%1, William%Hennequin%NULL%1, Clair%Mills%NULL%1, Francisco J%Luquero%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t>[Massimo%Ralli%NULL%0, Aldo%Morrone%NULL%1, Andrea%Arcangeli%NULL%1, Lucia%Ercoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Loïc%Schrooyen%NULL%0, Marc%Delforge%NULL%1, Faustine%Lebout%NULL%1, Thibaut%Vanbaelen%NULL%1, Amaryl%Lecompte%NULL%1, Nicolas%Dauby%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Society of Clinical Microbiology and Infectious Diseases. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Carmen%Martin%NULL%0, Pilar%Andrés%NULL%2, Pilar%Andrés%NULL%0, Alberto%Bullón%NULL%1, José Luis%Villegas%NULL%2, José Luis%Villegas%NULL%0, Javier Ignacio%de la Iglesia-Larrad%NULL%1, Berta%Bote%NULL%1, Nieves%Prieto%NULL%1, Carlos%Roncero%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
   </si>
 </sst>
 </file>
@@ -2913,7 +3165,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>743</v>
+        <v>807</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2925,10 +3177,10 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2939,28 +3191,28 @@
         <v>43948</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>603</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>604</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2977,7 +3229,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2989,10 +3241,10 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3003,28 +3255,28 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>607</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>608</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3038,10 +3290,10 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>811</v>
       </c>
       <c r="E6" t="s">
-        <v>745</v>
+        <v>812</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -3053,10 +3305,10 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3073,7 +3325,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>746</v>
+        <v>814</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -3085,10 +3337,10 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3102,10 +3354,10 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>815</v>
       </c>
       <c r="E8" t="s">
-        <v>747</v>
+        <v>816</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -3117,10 +3369,10 @@
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3137,7 +3389,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>748</v>
+        <v>818</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -3149,10 +3401,10 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3166,10 +3418,10 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>819</v>
       </c>
       <c r="E10" t="s">
-        <v>749</v>
+        <v>820</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -3181,10 +3433,10 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3195,28 +3447,28 @@
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>608</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3233,7 +3485,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>750</v>
+        <v>822</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3245,10 +3497,10 @@
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3262,10 +3514,10 @@
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>824</v>
       </c>
       <c r="E13" t="s">
-        <v>751</v>
+        <v>825</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -3277,10 +3529,10 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3297,7 +3549,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>752</v>
+        <v>826</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -3309,10 +3561,10 @@
         <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3326,10 +3578,10 @@
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>827</v>
       </c>
       <c r="E15" t="s">
-        <v>753</v>
+        <v>828</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -3341,10 +3593,10 @@
         <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3361,7 +3613,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>754</v>
+        <v>829</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
@@ -3373,10 +3625,10 @@
         <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3387,28 +3639,28 @@
         <v>44136</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
         <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>621</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3425,7 +3677,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>755</v>
+        <v>830</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -3437,10 +3689,10 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3451,28 +3703,28 @@
         <v>2020</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
         <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>623</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3489,7 +3741,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>756</v>
+        <v>832</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -3501,10 +3753,10 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3521,7 +3773,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>757</v>
+        <v>833</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -3533,10 +3785,10 @@
         <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3547,25 +3799,25 @@
         <v>44113</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>758</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
@@ -3585,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>759</v>
+        <v>835</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -3597,10 +3849,10 @@
         <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>567</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3617,7 +3869,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3629,10 +3881,10 @@
         <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3649,7 +3901,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>761</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -3661,10 +3913,10 @@
         <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3681,7 +3933,7 @@
         <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>762</v>
+        <v>840</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -3693,10 +3945,10 @@
         <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3713,7 +3965,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>763</v>
+        <v>841</v>
       </c>
       <c r="F27" t="s">
         <v>136</v>
@@ -3725,10 +3977,10 @@
         <v>137</v>
       </c>
       <c r="I27" t="s">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>842</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3745,7 +3997,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>764</v>
+        <v>843</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>
@@ -3757,10 +4009,10 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
